--- a/public/教师表.xlsx
+++ b/public/教师表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="211">
   <si>
     <t>教师工号</t>
   </si>
@@ -28,10 +28,625 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>计算机科学与技术学院</t>
+    <t>郁仪言</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>贾颖</t>
+  </si>
+  <si>
+    <t>郭薇俊</t>
+  </si>
+  <si>
+    <t>殷海婉</t>
+  </si>
+  <si>
+    <t>彭育星</t>
+  </si>
+  <si>
+    <t>马秀妹</t>
+  </si>
+  <si>
+    <t>邓融</t>
+  </si>
+  <si>
+    <t>柳顺政</t>
+  </si>
+  <si>
+    <t>霍娥康</t>
+  </si>
+  <si>
+    <t>花震</t>
+  </si>
+  <si>
+    <t>童昭静</t>
+  </si>
+  <si>
+    <t>关真</t>
+  </si>
+  <si>
+    <t>邓姣</t>
+  </si>
+  <si>
+    <t>施美敬</t>
+  </si>
+  <si>
+    <t>崔元欣</t>
+  </si>
+  <si>
+    <t>毕彬莎</t>
+  </si>
+  <si>
+    <t>盛会婷</t>
+  </si>
+  <si>
+    <t>仇瑗</t>
+  </si>
+  <si>
+    <t>弘思</t>
+  </si>
+  <si>
+    <t>江峰燕</t>
+  </si>
+  <si>
+    <t>巴眉</t>
+  </si>
+  <si>
+    <t>项桂梅</t>
+  </si>
+  <si>
+    <t>丁亮</t>
+  </si>
+  <si>
+    <t>终舒</t>
+  </si>
+  <si>
+    <t>倪福</t>
+  </si>
+  <si>
+    <t>卫兰新</t>
+  </si>
+  <si>
+    <t>侯怡</t>
+  </si>
+  <si>
+    <t>鲁琼</t>
+  </si>
+  <si>
+    <t>盛会</t>
+  </si>
+  <si>
+    <t>公凡</t>
+  </si>
+  <si>
+    <t>弓伯</t>
+  </si>
+  <si>
+    <t>粱怡丹</t>
+  </si>
+  <si>
+    <t>戈雅</t>
+  </si>
+  <si>
+    <t>尹全融</t>
+  </si>
+  <si>
+    <t>芮爽元</t>
+  </si>
+  <si>
+    <t>杜钧宜</t>
+  </si>
+  <si>
+    <t>机械学院</t>
+  </si>
+  <si>
+    <t>郎娴</t>
+  </si>
+  <si>
+    <t>夏蕊菊</t>
+  </si>
+  <si>
+    <t>史希</t>
+  </si>
+  <si>
+    <t>瞿冠</t>
+  </si>
+  <si>
+    <t>秦琬</t>
+  </si>
+  <si>
+    <t>王筠</t>
+  </si>
+  <si>
+    <t>鱼思辰</t>
+  </si>
+  <si>
+    <t>居枝光</t>
+  </si>
+  <si>
+    <t>麻福</t>
+  </si>
+  <si>
+    <t>严佳士</t>
+  </si>
+  <si>
+    <t>麻艳瑶</t>
+  </si>
+  <si>
+    <t>山可贞</t>
+  </si>
+  <si>
+    <t>左萍</t>
+  </si>
+  <si>
+    <t>湛志莺</t>
+  </si>
+  <si>
+    <t>司康</t>
+  </si>
+  <si>
+    <t>家生杰</t>
+  </si>
+  <si>
+    <t>干福慧</t>
+  </si>
+  <si>
+    <t>晏舒厚</t>
+  </si>
+  <si>
+    <t>瞿香</t>
+  </si>
+  <si>
+    <t>颜翠</t>
+  </si>
+  <si>
+    <t>姚君</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>钱翠冰</t>
+  </si>
+  <si>
+    <t>寿凡</t>
+  </si>
+  <si>
+    <t>韦叶超</t>
+  </si>
+  <si>
+    <t>温琳枫</t>
+  </si>
+  <si>
+    <t>耿雅坚</t>
+  </si>
+  <si>
+    <t>俞龙</t>
+  </si>
+  <si>
+    <t>宋磊婷</t>
+  </si>
+  <si>
+    <t>燕琰</t>
+  </si>
+  <si>
+    <t>杨绍世</t>
+  </si>
+  <si>
+    <t>巴志永</t>
+  </si>
+  <si>
+    <t>鱼薇</t>
+  </si>
+  <si>
+    <t>萧思才</t>
+  </si>
+  <si>
+    <t>水江</t>
+  </si>
+  <si>
+    <t>桓安晓</t>
+  </si>
+  <si>
+    <t>湛承静</t>
+  </si>
+  <si>
+    <t>古融</t>
+  </si>
+  <si>
+    <t>松策波</t>
+  </si>
+  <si>
+    <t>益璐</t>
+  </si>
+  <si>
+    <t>褚惠馨</t>
+  </si>
+  <si>
+    <t>田亮</t>
+  </si>
+  <si>
+    <t>寿梁东</t>
+  </si>
+  <si>
+    <t>容月</t>
+  </si>
+  <si>
+    <t>姚志澜</t>
+  </si>
+  <si>
+    <t>居林广</t>
+  </si>
+  <si>
+    <t>许成腾</t>
+  </si>
+  <si>
+    <t>奚毓</t>
+  </si>
+  <si>
+    <t>项姣</t>
+  </si>
+  <si>
+    <t>建筑学院</t>
+  </si>
+  <si>
+    <t>陆嘉融</t>
+  </si>
+  <si>
+    <t>钟嘉</t>
+  </si>
+  <si>
+    <t>仇平磊</t>
+  </si>
+  <si>
+    <t>和莎</t>
+  </si>
+  <si>
+    <t>邱康丽</t>
+  </si>
+  <si>
+    <t>弓志时</t>
+  </si>
+  <si>
+    <t>丁琦</t>
+  </si>
+  <si>
+    <t>郁荷</t>
+  </si>
+  <si>
+    <t>黄韵</t>
+  </si>
+  <si>
+    <t>洪友婉</t>
+  </si>
+  <si>
+    <t>王玲</t>
+  </si>
+  <si>
+    <t>云勇岚</t>
+  </si>
+  <si>
+    <t>钱凡</t>
+  </si>
+  <si>
+    <t>齐影思</t>
+  </si>
+  <si>
+    <t>贝强</t>
+  </si>
+  <si>
+    <t>寿力邦</t>
+  </si>
+  <si>
+    <t>柳朗子</t>
+  </si>
+  <si>
+    <t>严枝纨</t>
+  </si>
+  <si>
+    <t>骆胜</t>
+  </si>
+  <si>
+    <t>陶丽风</t>
+  </si>
+  <si>
+    <t>何楠新</t>
+  </si>
+  <si>
+    <t>水卿朋</t>
+  </si>
+  <si>
+    <t>张昌欣</t>
+  </si>
+  <si>
+    <t>闻泽</t>
+  </si>
+  <si>
+    <t>桓武欢</t>
+  </si>
+  <si>
+    <t>经济管理学院</t>
+  </si>
+  <si>
+    <t>干雅</t>
+  </si>
+  <si>
+    <t>米苑</t>
+  </si>
+  <si>
+    <t>羊先</t>
+  </si>
+  <si>
+    <t>殷黛伯</t>
+  </si>
+  <si>
+    <t>屈希军</t>
+  </si>
+  <si>
+    <t>汤青美</t>
+  </si>
+  <si>
+    <t>郑元</t>
+  </si>
+  <si>
+    <t>吉乐彩</t>
+  </si>
+  <si>
+    <t>吕亨</t>
+  </si>
+  <si>
+    <t>伍学</t>
+  </si>
+  <si>
+    <t>洪梦</t>
+  </si>
+  <si>
+    <t>苍芳春</t>
+  </si>
+  <si>
+    <t>黎盛</t>
+  </si>
+  <si>
+    <t>董丽</t>
+  </si>
+  <si>
+    <t>伊明</t>
+  </si>
+  <si>
+    <t>邢若龙</t>
+  </si>
+  <si>
+    <t>巴娴</t>
+  </si>
+  <si>
+    <t>古岚和</t>
+  </si>
+  <si>
+    <t>刁杰</t>
+  </si>
+  <si>
+    <t>理学院</t>
+  </si>
+  <si>
+    <t>夏言</t>
+  </si>
+  <si>
+    <t>郭健</t>
+  </si>
+  <si>
+    <t>刘静</t>
+  </si>
+  <si>
+    <t>齐安盛</t>
+  </si>
+  <si>
+    <t>陆贵婵</t>
+  </si>
+  <si>
+    <t>霍融翠</t>
+  </si>
+  <si>
+    <t>彭婷</t>
+  </si>
+  <si>
+    <t>宗珍</t>
+  </si>
+  <si>
+    <t>郭芬</t>
+  </si>
+  <si>
+    <t>孟琴</t>
+  </si>
+  <si>
+    <t>黎彩</t>
+  </si>
+  <si>
+    <t>邢腾</t>
+  </si>
+  <si>
+    <t>奚明士</t>
+  </si>
+  <si>
+    <t>袁政毓</t>
+  </si>
+  <si>
+    <t>禹超</t>
+  </si>
+  <si>
+    <t>双富</t>
+  </si>
+  <si>
+    <t>毛竹</t>
+  </si>
+  <si>
+    <t>邵晓</t>
+  </si>
+  <si>
+    <t>费君</t>
+  </si>
+  <si>
+    <t>卜亚</t>
+  </si>
+  <si>
+    <t>孔毓</t>
+  </si>
+  <si>
+    <t>都翰可</t>
+  </si>
+  <si>
+    <t>卫贵桂</t>
+  </si>
+  <si>
+    <t>闻宁</t>
+  </si>
+  <si>
+    <t>董梦波</t>
+  </si>
+  <si>
+    <t>美术学院</t>
+  </si>
+  <si>
+    <t>莘俊</t>
+  </si>
+  <si>
+    <t>边梁</t>
+  </si>
+  <si>
+    <t>强芬</t>
+  </si>
+  <si>
+    <t>莘风</t>
+  </si>
+  <si>
+    <t>郁芸</t>
+  </si>
+  <si>
+    <t>邵巧</t>
+  </si>
+  <si>
+    <t>邵婵</t>
+  </si>
+  <si>
+    <t>乐会柔</t>
+  </si>
+  <si>
+    <t>郭玉宜</t>
+  </si>
+  <si>
+    <t>应枝影</t>
+  </si>
+  <si>
+    <t>劳蓓</t>
+  </si>
+  <si>
+    <t>刁玲</t>
+  </si>
+  <si>
+    <t>滕乐</t>
+  </si>
+  <si>
+    <t>习克</t>
+  </si>
+  <si>
+    <t>毛贞</t>
+  </si>
+  <si>
+    <t>路仁</t>
+  </si>
+  <si>
+    <t>翁霭策</t>
+  </si>
+  <si>
+    <t>唐霞爱</t>
+  </si>
+  <si>
+    <t>毛世</t>
+  </si>
+  <si>
+    <t>余瑶文</t>
+  </si>
+  <si>
+    <t>庞世羽</t>
+  </si>
+  <si>
+    <t>危才</t>
+  </si>
+  <si>
+    <t>关保杰</t>
+  </si>
+  <si>
+    <t>任锦海</t>
+  </si>
+  <si>
+    <t>医学院</t>
+  </si>
+  <si>
+    <t>仇国辉</t>
+  </si>
+  <si>
+    <t>巴顺</t>
+  </si>
+  <si>
+    <t>梅政</t>
+  </si>
+  <si>
+    <t>晋航宁</t>
+  </si>
+  <si>
+    <t>向亚瑗</t>
+  </si>
+  <si>
+    <t>贾泰政</t>
+  </si>
+  <si>
+    <t>宁家兰</t>
+  </si>
+  <si>
+    <t>翁羽谦</t>
+  </si>
+  <si>
+    <t>时谦</t>
+  </si>
+  <si>
+    <t>郎辰健</t>
+  </si>
+  <si>
+    <t>车亚</t>
+  </si>
+  <si>
+    <t>禹安</t>
+  </si>
+  <si>
+    <t>崔庆</t>
+  </si>
+  <si>
+    <t>双波</t>
+  </si>
+  <si>
+    <t>寿海坚</t>
+  </si>
+  <si>
+    <t>田辰</t>
+  </si>
+  <si>
+    <t>叶莺</t>
+  </si>
+  <si>
+    <t>和祥</t>
+  </si>
+  <si>
+    <t>衡若婉</t>
+  </si>
+  <si>
+    <t>益琬</t>
+  </si>
+  <si>
+    <t>滕子</t>
+  </si>
+  <si>
+    <t>岑凤</t>
   </si>
 </sst>
 </file>
@@ -39,9 +654,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -60,11 +675,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,6 +686,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +719,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,7 +773,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,39 +795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,40 +813,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,7 +828,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,31 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +948,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,102 +1009,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,23 +1025,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,19 +1073,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,9 +1111,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,150 +1125,154 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,13 +1656,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="10.8333333333333" customWidth="1"/>
@@ -1052,39 +1671,2812 @@
     <col min="6" max="6" width="15.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2017001</v>
+        <v>1101700005</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2">
         <v>15623226565</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1101700006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>15623226566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1101700007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>15623226567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1101700008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>15623226568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1101700009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>15623226569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1101700010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>15623226570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1101700011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>15623226571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1101700012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>15623226572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1101700013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>15623226573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1101700014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>15623226574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1101700015</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>15623226575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1101700016</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>15623226576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1101700017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>15623226577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1101700018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>15623226578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1101700019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>15623226579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1101700020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>15623226580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1101700021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>15623226581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1101700022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>15623226582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1101700023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>15623226583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1101700024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>15623226584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1101700025</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>15623226585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1101700026</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>15623226586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1101700027</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>15623226587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1101700028</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>15623226588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1101700029</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>15623226589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1101700030</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>15623226590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1101700031</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>15623226591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1101700032</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>15623226592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1101700033</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>15623226593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1101700034</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>15623226594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1101700035</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>15623226595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1101700036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>15623226596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1101700037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>15623226597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1101700038</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>15623226598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1101700039</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>15623226599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1101700040</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>15623226600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1101700041</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>15623226601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1101700042</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>15623226602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1101700043</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>15623226603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1101700044</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>15623226604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1101700045</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>15623226605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1101700046</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>15623226606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1101700047</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>15623226607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1101700048</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>15623226608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1101700049</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>15623226609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1101700050</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>15623226610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1101700051</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>15623226611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1101700052</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>15623226612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1101700053</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>15623226613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1101700054</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>15623226614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1101700055</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <v>15623226615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1101700056</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>15623226616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1101700057</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54">
+        <v>15623226617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1101700058</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55">
+        <v>15623226618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1101700059</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>15623226619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1101700060</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57">
+        <v>15623226620</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1101700061</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58">
+        <v>15623226621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1101700062</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59">
+        <v>15623226622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1101700063</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>15623226623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>1101700064</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <v>15623226624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>1101700065</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>15623226625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1101700066</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>15623226626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1101700067</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>15623226627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1101700068</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>15623226628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1101700069</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>15623226629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>1101700070</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67">
+        <v>15623226630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1101700071</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68">
+        <v>15623226631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>1101700072</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69">
+        <v>15623226632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1101700073</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70">
+        <v>15623226633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1101700074</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>15623226634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>1101700075</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>15623226635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>1101700076</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <v>15623226636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1101700077</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>15623226637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>1101700078</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>15623226638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1101700079</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>15623226639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>1101700080</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>15623226640</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>1101700081</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78">
+        <v>15623226641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>1101700082</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79">
+        <v>15623226642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1101700083</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <v>15623226643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>1101700084</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81">
+        <v>15623226644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>1101700085</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82">
+        <v>15623226645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>1101700086</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83">
+        <v>15623226646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>1101700087</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84">
+        <v>15623226647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>1101700088</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>15623226648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>1101700089</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86">
+        <v>15623226649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>1101700090</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87">
+        <v>15623226650</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1101700091</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88">
+        <v>15623226651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>1101700092</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>15623226652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1101700093</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90">
+        <v>15623226653</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>1101700094</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>15623226654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>1101700095</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>15623226655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1101700096</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>15623226656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1101700097</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>15623226657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>1101700098</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <v>15623226658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1101700099</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96">
+        <v>15623226659</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1101700100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <v>15623226660</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1101700101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98">
+        <v>15623226661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1101700102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <v>15623226662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1101700103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100">
+        <v>15623226663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1101700104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101">
+        <v>15623226664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1101700105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102">
+        <v>15623226665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1101700106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103">
+        <v>15623226666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1101700107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104">
+        <v>15623226667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1101700108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105">
+        <v>15623226668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1101700109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106">
+        <v>15623226669</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1101700110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107">
+        <v>15623226670</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1101700111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108">
+        <v>15623226671</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1101700112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109">
+        <v>15623226672</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1101700113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110">
+        <v>15623226673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1101700114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111">
+        <v>15623226674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1101700115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112">
+        <v>15623226675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1101700116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113">
+        <v>15623226676</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1101700117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114">
+        <v>15623226677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1101700118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115">
+        <v>15623226678</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1101700119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116">
+        <v>15623226679</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1101700120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117">
+        <v>15623226680</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1101700121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <v>15623226681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1101700122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>15623226682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1101700123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120">
+        <v>15623226683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1101700124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121">
+        <v>15623226684</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1101700125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122">
+        <v>15623226685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1101700126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123">
+        <v>15623226686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1101700127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124">
+        <v>15623226687</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1101700128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125">
+        <v>15623226688</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1101700129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126">
+        <v>15623226689</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1101700130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127">
+        <v>15623226690</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1101700131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128">
+        <v>15623226691</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1101700132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129">
+        <v>15623226692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1101700133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130">
+        <v>15623226693</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1101700134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131">
+        <v>15623226694</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1101700135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132">
+        <v>15623226695</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>1101700136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133">
+        <v>15623226696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>1101700137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134">
+        <v>15623226697</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>1101700138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135">
+        <v>15623226698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>1101700139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136">
+        <v>15623226699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1101700140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137">
+        <v>15623226700</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>1101700141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <v>15623226701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>1101700142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <v>15623226702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>1101700143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140">
+        <v>15623226703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>1101700144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D141">
+        <v>15623226704</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1101700145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142">
+        <v>15623226705</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>1101700146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143">
+        <v>15623226706</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1101700147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144">
+        <v>15623226707</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>1101700148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145">
+        <v>15623226708</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>1101700149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146">
+        <v>15623226709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1101700150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147">
+        <v>15623226710</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1101700151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148">
+        <v>15623226711</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1101700152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149">
+        <v>15623226712</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>1101700153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150">
+        <v>15623226713</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>1101700154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D151">
+        <v>15623226714</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>1101700155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D152">
+        <v>15623226715</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1101700156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153">
+        <v>15623226716</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>1101700157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154">
+        <v>15623226717</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>1101700158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155">
+        <v>15623226718</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>1101700159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156">
+        <v>15623226719</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>1101700160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157">
+        <v>15623226720</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>1101700161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158">
+        <v>15623226721</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1101700162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159">
+        <v>15623226722</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>1101700163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160">
+        <v>15623226723</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1101700164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>15623226724</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>1101700165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162">
+        <v>15623226725</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>1101700166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D163">
+        <v>15623226726</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>1101700167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>15623226727</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>1101700168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>15623226728</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>1101700169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166">
+        <v>15623226729</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>1101700170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167">
+        <v>15623226730</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>1101700171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168">
+        <v>15623226731</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>1101700172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169">
+        <v>15623226732</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>1101700173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170">
+        <v>15623226733</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>1101700174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D171">
+        <v>15623226734</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>1101700175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D172">
+        <v>15623226735</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>1101700176</v>
+      </c>
+      <c r="B173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173">
+        <v>15623226736</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>1101700177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174">
+        <v>15623226737</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>1101700178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D175">
+        <v>15623226738</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>1101700179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D176">
+        <v>15623226739</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>1101700180</v>
+      </c>
+      <c r="B177" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177">
+        <v>15623226740</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>1101700181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>187</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178">
+        <v>15623226741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>1101700182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D179">
+        <v>15623226742</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>1101700183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D180">
+        <v>15623226743</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>1101700184</v>
+      </c>
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181">
+        <v>15623226744</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>1101700185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D182">
+        <v>15623226745</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>1101700186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183">
+        <v>15623226746</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>1101700187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>194</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D184">
+        <v>15623226747</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>1101700188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185">
+        <v>15623226748</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>1101700189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186">
+        <v>15623226749</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>1101700190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>197</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187">
+        <v>15623226750</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>1101700191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D188">
+        <v>15623226751</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>1101700192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189">
+        <v>15623226752</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>1101700193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D190">
+        <v>15623226753</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>1101700194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>201</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D191">
+        <v>15623226754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>1101700195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>202</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D192">
+        <v>15623226755</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>1101700196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>203</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D193">
+        <v>15623226756</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>1101700197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D194">
+        <v>15623226757</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>1101700198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>205</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D195">
+        <v>15623226758</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>1101700199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D196">
+        <v>15623226759</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>1101700200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D197">
+        <v>15623226760</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>1101700201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>208</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D198">
+        <v>15623226761</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>1101700202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199">
+        <v>15623226762</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>1101700203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>210</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D200">
+        <v>15623226763</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="C1:C200">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:B2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>